--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>plant, grass</t>
+  </si>
+  <si>
+    <t>grass, cleanup, fps</t>
   </si>
 </sst>
 </file>
@@ -476,7 +479,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -503,7 +506,7 @@
       </c>
       <c r="F1" s="10">
         <f>SUM(C2:C27)</f>
-        <v>14.1</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -579,12 +582,18 @@
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="C6">
+        <v>3.3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F6">
         <f>SUM(C2:C6)</f>
-        <v>14.1</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>grass, cleanup, fps</t>
+  </si>
+  <si>
+    <t>water dropping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">art overhaul + ui, world beginnings </t>
   </si>
 </sst>
 </file>
@@ -479,7 +485,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -506,7 +512,7 @@
       </c>
       <c r="F1" s="10">
         <f>SUM(C2:C27)</f>
-        <v>17.399999999999999</v>
+        <v>22.799999999999997</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -603,6 +609,12 @@
       <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="C7">
+        <v>0.3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -612,6 +624,12 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="C8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -662,7 +680,7 @@
       </c>
       <c r="F13">
         <f>SUM(C7:C13)</f>
-        <v>0</v>
+        <v>5.3999999999999995</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t xml:space="preserve">art overhaul + ui, world beginnings </t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>fungus + objects affecting other maps + design document</t>
   </si>
 </sst>
 </file>
@@ -485,7 +491,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -512,7 +518,7 @@
       </c>
       <c r="F1" s="10">
         <f>SUM(C2:C27)</f>
-        <v>22.799999999999997</v>
+        <v>28.9</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -639,6 +645,12 @@
       <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="C9">
+        <v>3.1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -648,6 +660,12 @@
       <c r="B10" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -680,7 +698,7 @@
       </c>
       <c r="F13">
         <f>SUM(C7:C13)</f>
-        <v>5.3999999999999995</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -78,13 +78,52 @@
   </si>
   <si>
     <t>fungus + objects affecting other maps + design document</t>
+  </si>
+  <si>
+    <t>new water plan</t>
+  </si>
+  <si>
+    <t>stone</t>
+  </si>
+  <si>
+    <t>depth + improved fungus + map updating changes</t>
+  </si>
+  <si>
+    <t>sheep</t>
+  </si>
+  <si>
+    <t>pathfinding</t>
+  </si>
+  <si>
+    <t>more progress + pathfinding complete</t>
+  </si>
+  <si>
+    <t>bug fixing</t>
+  </si>
+  <si>
+    <t>faec beginning</t>
+  </si>
+  <si>
+    <t>noise</t>
+  </si>
+  <si>
+    <t>quit()</t>
+  </si>
+  <si>
+    <t>noise map implement</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -96,6 +135,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -182,8 +237,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -212,7 +269,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -491,7 +550,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -518,7 +577,7 @@
       </c>
       <c r="F1" s="10">
         <f>SUM(C2:C27)</f>
-        <v>28.9</v>
+        <v>57.85</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -675,6 +734,12 @@
       <c r="B11" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -684,6 +749,12 @@
       <c r="B12" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="C12">
+        <v>0.1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -693,12 +764,18 @@
       <c r="B13" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="C13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F13">
         <f>SUM(C7:C13)</f>
-        <v>11.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -708,6 +785,12 @@
       <c r="B14" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -717,6 +800,12 @@
       <c r="B15" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -726,78 +815,132 @@
       <c r="B16" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="C16">
+        <v>0.75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>43293</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="C17">
+        <v>0.1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>43294</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="C18">
+        <v>0.1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>43295</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="C19">
+        <v>3.7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>43296</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="C20">
+        <v>4.5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
       <c r="E20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F20">
         <f>SUM(C14:C20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17.149999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>43297</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="C21">
+        <v>0.3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>43298</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="C22">
+        <v>1.5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
       <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>43299</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="C23">
+        <v>3.5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
       <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>43300</v>
       </c>
@@ -805,8 +948,11 @@
         <v>1</v>
       </c>
       <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>43301</v>
       </c>
@@ -814,8 +960,11 @@
         <v>1</v>
       </c>
       <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>43302</v>
       </c>
@@ -823,8 +972,11 @@
         <v>1</v>
       </c>
       <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>43303</v>
       </c>
@@ -835,31 +987,34 @@
         <v>5</v>
       </c>
       <c r="F27">
-        <f>SUM(C21:C27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" ref="F21:F27" si="0">SUM(C21:C27)</f>
+        <v>5.3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B28" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B31" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
         <v>1</v>
       </c>
@@ -911,5 +1066,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>